--- a/zero-ecosystem/zero-plugins-extension/zero-exmodule-rbac/zero-exmodule-rbac-domain/src/main/resources/plugins/zero-exmodule-rbac/security/RBAC_USER/rbac.account.xlsx
+++ b/zero-ecosystem/zero-plugins-extension/zero-exmodule-rbac/zero-exmodule-rbac-domain/src/main/resources/plugins/zero-exmodule-rbac/security/RBAC_USER/rbac.account.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/app-zero/zero-ecotope/zero-ecosystem/zero-plugins-extension/zero-exmodule-rbac/zero-exmodule-rbac-domain/src/main/resources/plugins/zero-exmodule-rbac/security/RBAC_USER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DFC42B-1AD9-E64C-AD84-41143A6FC9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5DABE6-A49F-7441-8276-3AB22ED6F644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="38400" windowHeight="22360" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="77980" yWindow="5940" windowWidth="38400" windowHeight="22360" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-WHO" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>active</t>
   </si>
@@ -150,45 +150,6 @@
     <t>R_USER_ROLE</t>
   </si>
   <si>
-    <t>O_USER</t>
-  </si>
-  <si>
-    <t>Oauth主键</t>
-  </si>
-  <si>
-    <t>客户端ID</t>
-  </si>
-  <si>
-    <t>认证方式</t>
-  </si>
-  <si>
-    <t>客户端密钥</t>
-  </si>
-  <si>
-    <t>名空间</t>
-  </si>
-  <si>
-    <t>客户端状态</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>clientSecret</t>
-  </si>
-  <si>
-    <t>scope</t>
-  </si>
-  <si>
-    <t>grantType</t>
-  </si>
-  <si>
-    <t>clientId</t>
-  </si>
-  <si>
-    <t>authorization_code</t>
-  </si>
-  <si>
     <t>15922611447</t>
   </si>
   <si>
@@ -243,21 +204,12 @@
     <t>ADMIN.SUPER</t>
   </si>
   <si>
-    <t>app.micro.hotel</t>
-  </si>
-  <si>
     <t>模型管理ID</t>
   </si>
   <si>
     <t>modelKey</t>
   </si>
   <si>
-    <t>95a44d13-e980-42f3-b972-b165dc2a7f28</t>
-  </si>
-  <si>
-    <t>85xpi6iPrAtyt9WqlFfIvvbfu3PnRL8MtmtCyN5LUd3hIdZLVaZPQ20DR9jQwsIv</t>
-  </si>
-  <si>
     <t>模型管理类型</t>
   </si>
   <si>
@@ -268,10 +220,6 @@
   </si>
   <si>
     <t>账号数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号Oauth认证数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -306,11 +254,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -318,20 +266,20 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -339,7 +287,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -348,7 +296,7 @@
       <u/>
       <sz val="16"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -451,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -459,8 +407,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,9 +431,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -545,9 +488,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -585,7 +528,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -691,7 +634,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -833,7 +776,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -841,503 +784,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8EFB5-630A-0B48-8E56-AEAA85248043}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A6" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="55.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="96.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="55.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="96.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:12" s="6" customFormat="1">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="E8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="6"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="6"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="6"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1">
+      <c r="A21" s="17" t="str">
+        <f>A$14</f>
+        <v>e501b47a-c08b-4c83-b12b-95ad82873e96</v>
+      </c>
+      <c r="B21" s="9" t="str">
+        <f>A8</f>
+        <v>f7fbfaf9-8319-4eb0-9ee7-1948b8b56a67</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="B25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="F25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="11" t="str">
-        <f>A12</f>
-        <v>f7fbfaf9-8319-4eb0-9ee7-1948b8b56a67</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="I6" s="8"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="H16" s="8"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="H17" s="8"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="H18" s="8"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="str">
-        <f>A$18</f>
-        <v>e501b47a-c08b-4c83-b12b-95ad82873e96</v>
-      </c>
-      <c r="B25" s="11" t="str">
-        <f>A12</f>
-        <v>f7fbfaf9-8319-4eb0-9ee7-1948b8b56a67</v>
-      </c>
-      <c r="C25" s="12">
-        <v>0</v>
-      </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="22" t="s">
+      <c r="C31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="C34" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>65</v>
+      <c r="C35" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:D18">
-    <sortCondition ref="B18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:D14">
+    <sortCondition ref="B14"/>
   </sortState>
-  <mergeCells count="4">
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C15:D15"/>
+  <mergeCells count="3">
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G12" r:id="rId1" xr:uid="{3A1D81C4-3457-FA45-96B6-BE833693112C}"/>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{3A1D81C4-3457-FA45-96B6-BE833693112C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/zero-ecosystem/zero-plugins-extension/zero-exmodule-rbac/zero-exmodule-rbac-domain/src/main/resources/plugins/zero-exmodule-rbac/security/RBAC_USER/rbac.account.xlsx
+++ b/zero-ecosystem/zero-plugins-extension/zero-exmodule-rbac/zero-exmodule-rbac-domain/src/main/resources/plugins/zero-exmodule-rbac/security/RBAC_USER/rbac.account.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/app-zero/zero-ecotope/zero-ecosystem/zero-plugins-extension/zero-exmodule-rbac/zero-exmodule-rbac-domain/src/main/resources/plugins/zero-exmodule-rbac/security/RBAC_USER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5DABE6-A49F-7441-8276-3AB22ED6F644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F4AF4F-06D0-CA4F-AD52-5F37BF3E1FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77980" yWindow="5940" windowWidth="38400" windowHeight="22360" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="79560" yWindow="10920" windowWidth="38400" windowHeight="22360" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-WHO" sheetId="1" r:id="rId1"/>
@@ -239,15 +239,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>314FEB8370A3E6A8F379D682FE16BE74</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>power</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>零の</t>
+  </si>
+  <si>
+    <t>$sha512$D88mO6p7WAHmb+6ikgqygpRV7WLb3iH8evu2WXNbUspCTMmOuYaari7h1qgeRu/vE9drl2uH2IGuxmk4M5MCUA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8EFB5-630A-0B48-8E56-AEAA85248043}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A3:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -796,7 +796,7 @@
     <col min="2" max="2" width="54.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="96.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="154.5" style="12" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -919,13 +919,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>13</v>
@@ -985,7 +985,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
